--- a/src/make_cv/files/Service/reviews data.xlsx
+++ b/src/make_cv/files/Service/reviews data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C6BFD4-E603-804B-9D8B-A354BF42A91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262B8AE-42F5-3C4B-9A95-E2940BAE457A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Journal</t>
   </si>
@@ -29,18 +29,6 @@
   </si>
   <si>
     <t>Rounds</t>
-  </si>
-  <si>
-    <t>Computer Methods in Applied Mechanics and Engineering</t>
-  </si>
-  <si>
-    <t>Atmospheric Pollution Research</t>
-  </si>
-  <si>
-    <t>Journal of Fluids Engineering</t>
-  </si>
-  <si>
-    <t>Moratuwa Engineering Research Conference (MERCon)</t>
   </si>
 </sst>
 </file>
@@ -411,10 +399,13 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -428,48 +419,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45474</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45292</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45383</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45413</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>

--- a/src/make_cv/files/Service/reviews data.xlsx
+++ b/src/make_cv/files/Service/reviews data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262B8AE-42F5-3C4B-9A95-E2940BAE457A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D012CF-B93D-964A-9A8C-0D0002E087F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,12 +88,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,224 +399,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="2"/>
-    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{0B003128-7EE1-404C-8F37-699262860F21}">
+      <formula1>1</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{893CBB06-E00D-CE46-9246-45FBBEE2AD5C}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>